--- a/data/human/LSR1 - AE df - 20231112.xlsx
+++ b/data/human/LSR1 - AE df - 20231112.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardoostinelli/Documents/GitHub/LSR1_anhedonia_H/data/human/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB0F2BA-0A70-3548-92AA-69C7587186E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F7B39-2AFB-0945-9C82-BA90A50446E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,9 +1247,9 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AP1" sqref="AP1"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2679,6 +2679,12 @@
       <c r="P26" t="s">
         <v>222</v>
       </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2729,6 +2735,9 @@
       <c r="P27" t="s">
         <v>223</v>
       </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -5625,11 +5634,17 @@
       <c r="Q74">
         <v>14</v>
       </c>
+      <c r="R74">
+        <v>31</v>
+      </c>
       <c r="S74">
         <v>10</v>
       </c>
       <c r="T74">
         <v>17</v>
+      </c>
+      <c r="U74">
+        <v>15</v>
       </c>
       <c r="V74">
         <v>14</v>
@@ -5687,11 +5702,17 @@
       <c r="Q75">
         <v>7</v>
       </c>
+      <c r="R75">
+        <v>32</v>
+      </c>
       <c r="S75">
         <v>2</v>
       </c>
       <c r="T75">
         <v>8</v>
+      </c>
+      <c r="U75">
+        <v>11</v>
       </c>
       <c r="V75">
         <v>3</v>
